--- a/Unidad I/ModelosRelacionales/PruebasYoutube.xlsx
+++ b/Unidad I/ModelosRelacionales/PruebasYoutube.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="14205" windowHeight="5010"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="14205" windowHeight="5010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
   <si>
     <t>USUARIOS</t>
   </si>
@@ -255,6 +255,30 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>LISTAS_REPRODUCCION</t>
+  </si>
+  <si>
+    <t>CODIGO_LISTA</t>
+  </si>
+  <si>
+    <t>NOMBRE_LISTA</t>
+  </si>
+  <si>
+    <t>PURO QUESO</t>
+  </si>
+  <si>
+    <t>METAL</t>
+  </si>
+  <si>
+    <t>VIDEOS QUE ME GUSTAN PERO QUE NO DEBERIAN DE GUSTARME</t>
+  </si>
+  <si>
+    <t>LISTAS_X_USUARIO</t>
+  </si>
+  <si>
+    <t>LISTAS_FAVORITAS</t>
   </si>
 </sst>
 </file>
@@ -278,7 +302,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -301,15 +325,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,16 +631,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L59"/>
+  <dimension ref="B3:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
@@ -1356,6 +1398,129 @@
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
     </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <v>2</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="4">
+        <v>4</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="4">
+        <v>5</v>
+      </c>
+      <c r="C75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="4">
+        <v>6</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="4">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="4">
+        <v>5</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="4">
+        <v>6</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Unidad I/ModelosRelacionales/PruebasYoutube.xlsx
+++ b/Unidad I/ModelosRelacionales/PruebasYoutube.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="14205" windowHeight="5010"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="14205" windowHeight="5010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
   <si>
     <t>USUARIOS</t>
   </si>
@@ -146,9 +146,6 @@
     <t>ESTADOS_VIDEOS</t>
   </si>
   <si>
-    <t>COCINA</t>
-  </si>
-  <si>
     <t>HOLASOYGERMAN</t>
   </si>
   <si>
@@ -279,6 +276,57 @@
   </si>
   <si>
     <t>LISTAS_FAVORITAS</t>
+  </si>
+  <si>
+    <t>USUARIOS_X_CANAL</t>
+  </si>
+  <si>
+    <t>CANALES</t>
+  </si>
+  <si>
+    <t>CODIGO_CANAL</t>
+  </si>
+  <si>
+    <t>NOMBRE_CANAL</t>
+  </si>
+  <si>
+    <t>GERMAN</t>
+  </si>
+  <si>
+    <t>german</t>
+  </si>
+  <si>
+    <t>JUEGAGERMAN</t>
+  </si>
+  <si>
+    <t>CLASIFICACIONES</t>
+  </si>
+  <si>
+    <t>CODIGO_CLASIFICACION</t>
+  </si>
+  <si>
+    <t>NOMBRE_CLASIFICACION</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CLASIFICACIONES_X_VIDEO</t>
+  </si>
+  <si>
+    <t>COCINA FACIL</t>
+  </si>
+  <si>
+    <t>TENDENCIAS</t>
+  </si>
+  <si>
+    <t>RANKING</t>
   </si>
 </sst>
 </file>
@@ -631,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L85"/>
+  <dimension ref="B3:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D123" sqref="C117:D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -768,10 +816,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -788,10 +836,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -802,10 +850,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -822,10 +870,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -839,10 +887,14 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="I16">
         <v>2</v>
       </c>
@@ -866,7 +918,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -880,13 +932,13 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="I19">
         <v>5</v>
@@ -903,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -912,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -923,7 +975,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
@@ -934,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -943,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -1007,7 +1059,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I30">
         <v>4</v>
@@ -1024,7 +1076,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>1</v>
@@ -1137,16 +1189,16 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F42" t="s">
         <v>39</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -1154,22 +1206,22 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K43" t="s">
         <v>25</v>
       </c>
       <c r="L43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -1177,13 +1229,13 @@
         <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44">
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -1200,13 +1252,13 @@
         <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45">
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -1242,7 +1294,7 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -1256,16 +1308,16 @@
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -1282,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D50" s="2">
         <v>2</v>
@@ -1302,7 +1354,7 @@
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="2">
         <v>2</v>
@@ -1351,7 +1403,7 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -1365,7 +1417,7 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2</v>
@@ -1376,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -1384,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -1392,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -1400,15 +1452,15 @@
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
@@ -1419,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" s="2">
         <v>7</v>
@@ -1430,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D66" s="2">
         <v>1</v>
@@ -1441,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
@@ -1449,7 +1501,7 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -1457,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -1486,7 +1538,7 @@
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -1494,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -1519,6 +1571,253 @@
       </c>
       <c r="C85" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="2">
+        <v>2</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="2">
+        <v>3</v>
+      </c>
+      <c r="C93" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="2">
+        <v>4</v>
+      </c>
+      <c r="C94" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="2">
+        <v>2</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="2">
+        <v>2</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="2">
+        <v>3</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="2">
+        <v>2</v>
+      </c>
+      <c r="C112" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="2">
+        <v>2</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="2">
+        <v>15</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="2">
+        <v>20</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1</v>
+      </c>
+      <c r="D119" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="2">
+        <v>30</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1</v>
+      </c>
+      <c r="D120" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="2">
+        <v>50</v>
+      </c>
+      <c r="C121" s="2">
+        <v>2</v>
+      </c>
+      <c r="D121" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="2">
+        <v>65</v>
+      </c>
+      <c r="C122" s="2">
+        <v>2</v>
+      </c>
+      <c r="D122" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="2">
+        <v>87</v>
+      </c>
+      <c r="C123" s="2">
+        <v>2</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
